--- a/[5] Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/[5] Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11.69411764705882</v>
+        <v>2.011764705882353</v>
       </c>
       <c r="E2" t="n">
-        <v>11.21960784313726</v>
+        <v>2</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.4745098039215669</v>
+        <v>0.0117647058823529</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.89117647058824</v>
+        <v>29.66470588235294</v>
       </c>
       <c r="E3" t="n">
-        <v>30.66470588235294</v>
+        <v>29.91960784313725</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.7735294117646987</v>
+        <v>-0.2549019607843128</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18.19705882352941</v>
+        <v>27.65294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>19.44509803921569</v>
+        <v>27.91960784313725</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-1.248039215686276</v>
+        <v>-0.2666666666666622</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61.27941176470588</v>
+        <v>26.19264705882353</v>
       </c>
       <c r="E5" t="n">
-        <v>66.46274509803921</v>
+        <v>28</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-5.183333333333323</v>
+        <v>-1.807352941176472</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>61.61488235294117</v>
+        <v>25.88724953948705</v>
       </c>
       <c r="E6" t="n">
-        <v>66.81193137254901</v>
+        <v>27.34578487000606</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-5.197049019607839</v>
+        <v>-1.458535330519016</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>55.68507352941177</v>
+        <v>24.61408444579874</v>
       </c>
       <c r="E7" t="n">
-        <v>58.52921568627451</v>
+        <v>25.95823416000801</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-2.844142156862745</v>
+        <v>-1.344149714209269</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23.77732352941176</v>
+        <v>8.095382352941174</v>
       </c>
       <c r="E8" t="n">
-        <v>26.98058823529411</v>
+        <v>9.092450980392158</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-3.203264705882351</v>
+        <v>-0.9970686274509841</v>
       </c>
     </row>
     <row r="9">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>153.2013235294118</v>
+        <v>22.90964705882353</v>
       </c>
       <c r="E9" t="n">
-        <v>160.5711862745098</v>
+        <v>26.84164705882353</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-7.369862745098004</v>
+        <v>-3.931999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6125.470308823529</v>
+        <v>910.5972549019606</v>
       </c>
       <c r="E10" t="n">
-        <v>7294.271343137255</v>
+        <v>1038.253882352941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-1168.801034313726</v>
+        <v>-127.6566274509806</v>
       </c>
     </row>
     <row r="11">
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10.47058823529412</v>
+        <v>2.035294117647059</v>
       </c>
       <c r="E11" t="n">
-        <v>9.464705882352941</v>
+        <v>2</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.005882352941176</v>
+        <v>0.0352941176470587</v>
       </c>
     </row>
     <row r="12">
@@ -797,10 +797,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30.76764705882353</v>
+        <v>27.37058823529412</v>
       </c>
       <c r="E12" t="n">
-        <v>30.25294117647059</v>
+        <v>27.21176470588236</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.514705882352942</v>
+        <v>0.1588235294117624</v>
       </c>
     </row>
     <row r="13">
@@ -828,18 +828,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>20.29705882352941</v>
+        <v>25.33529411764706</v>
       </c>
       <c r="E13" t="n">
-        <v>20.78823529411764</v>
+        <v>25.21176470588236</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-0.4911764705882327</v>
+        <v>0.1235294117647072</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>101.5970588235294</v>
+        <v>42.58676470588235</v>
       </c>
       <c r="E14" t="n">
-        <v>116.4441176470588</v>
+        <v>49.42058823529411</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-14.84705882352938</v>
+        <v>-6.833823529411767</v>
       </c>
     </row>
     <row r="15">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>101.4388529411764</v>
+        <v>41.65991455567057</v>
       </c>
       <c r="E15" t="n">
-        <v>116.6097941176471</v>
+        <v>48.83243734314609</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-15.17094117647062</v>
+        <v>-7.172522787475515</v>
       </c>
     </row>
     <row r="16">
@@ -921,10 +921,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91.61427941176471</v>
+        <v>39.31767164903403</v>
       </c>
       <c r="E16" t="n">
-        <v>102.8964117647059</v>
+        <v>47.16145683233783</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-11.28213235294118</v>
+        <v>-7.843785183303794</v>
       </c>
     </row>
     <row r="17">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41.99417647058824</v>
+        <v>14.18010294117647</v>
       </c>
       <c r="E17" t="n">
-        <v>48.98288235294118</v>
+        <v>15.84479411764706</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-6.988705882352946</v>
+        <v>-1.664691176470585</v>
       </c>
     </row>
     <row r="18">
@@ -983,18 +983,18 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>151.8446029411764</v>
+        <v>28.49880882352941</v>
       </c>
       <c r="E18" t="n">
-        <v>174.9193529411765</v>
+        <v>28.33964705882353</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-23.07475000000005</v>
+        <v>0.1591617647058818</v>
       </c>
     </row>
     <row r="19">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11729.93754411765</v>
+        <v>1812.578808823529</v>
       </c>
       <c r="E19" t="n">
-        <v>14680.4299117647</v>
+        <v>1916.360647058823</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-2950.492367647057</v>
+        <v>-103.7818382352939</v>
       </c>
     </row>
     <row r="20">
@@ -1045,18 +1045,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10.77647058823529</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>10.08235294117647</v>
+        <v>2.117647058823529</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.6941176470588246</v>
+        <v>-0.1176470588235294</v>
       </c>
     </row>
     <row r="21">
@@ -1076,18 +1076,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30.85588235294117</v>
+        <v>30.71176470588236</v>
       </c>
       <c r="E21" t="n">
-        <v>31.59411764705882</v>
+        <v>29.84705882352941</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-0.7382352941176507</v>
+        <v>0.8647058823529434</v>
       </c>
     </row>
     <row r="22">
@@ -1107,18 +1107,18 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20.07941176470588</v>
+        <v>28.71176470588236</v>
       </c>
       <c r="E22" t="n">
-        <v>21.51176470588235</v>
+        <v>27.72941176470588</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-1.432352941176468</v>
+        <v>0.9823529411764724</v>
       </c>
     </row>
     <row r="23">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>94.09901960784315</v>
+        <v>38.65294117647059</v>
       </c>
       <c r="E23" t="n">
-        <v>99.40294117647058</v>
+        <v>39.83235294117647</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-5.30392156862743</v>
+        <v>-1.179411764705875</v>
       </c>
     </row>
     <row r="24">
@@ -1169,10 +1169,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>94.10837254901961</v>
+        <v>38.02296306641332</v>
       </c>
       <c r="E24" t="n">
-        <v>99.60820588235293</v>
+        <v>39.18278956032527</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-5.499833333333328</v>
+        <v>-1.15982649391195</v>
       </c>
     </row>
     <row r="25">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>85.25827941176469</v>
+        <v>36.79431822758757</v>
       </c>
       <c r="E25" t="n">
-        <v>89.27905882352943</v>
+        <v>37.33403133022745</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-4.020779411764735</v>
+        <v>-0.5397131026398725</v>
       </c>
     </row>
     <row r="26">
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37.32061764705882</v>
+        <v>12.24626470588235</v>
       </c>
       <c r="E26" t="n">
-        <v>40.80264705882353</v>
+        <v>13.12876470588235</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-3.482029411764714</v>
+        <v>-0.8824999999999985</v>
       </c>
     </row>
     <row r="27">
@@ -1262,18 +1262,18 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>161.9404215686275</v>
+        <v>23.20177450980392</v>
       </c>
       <c r="E27" t="n">
-        <v>146.4984705882353</v>
+        <v>27.39797058823529</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>15.44195098039219</v>
+        <v>-4.19619607843137</v>
       </c>
     </row>
     <row r="28">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9727.303068627451</v>
+        <v>1261.214568627451</v>
       </c>
       <c r="E28" t="n">
-        <v>10911.30670588235</v>
+        <v>1442.083617647059</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-1184.003637254904</v>
+        <v>-180.8690490196082</v>
       </c>
     </row>
     <row r="29">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10.64509803921568</v>
+        <v>2.140196078431372</v>
       </c>
       <c r="E29" t="n">
-        <v>10.33529411764706</v>
+        <v>2.023529411764706</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.3098039215686246</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -1355,18 +1355,18 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31.26862745098039</v>
+        <v>24.38333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>30.75882352941176</v>
+        <v>24.63333333333333</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5098039215686256</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="31">
@@ -1386,18 +1386,18 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20.62352941176471</v>
+        <v>22.24313725490196</v>
       </c>
       <c r="E31" t="n">
-        <v>20.42352941176471</v>
+        <v>22.60980392156863</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.2000000000000028</v>
+        <v>-0.3666666666666636</v>
       </c>
     </row>
     <row r="32">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>132.7289215686275</v>
+        <v>60.01029411764706</v>
       </c>
       <c r="E32" t="n">
-        <v>106.7294117647059</v>
+        <v>46.44607843137254</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>25.99950980392158</v>
+        <v>13.56421568627452</v>
       </c>
     </row>
     <row r="33">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>132.0296323529412</v>
+        <v>57.8934385788173</v>
       </c>
       <c r="E33" t="n">
-        <v>106.7367941176471</v>
+        <v>45.16079723181487</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>25.29283823529411</v>
+        <v>12.73264134700243</v>
       </c>
     </row>
     <row r="34">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>119.0064558823529</v>
+        <v>54.05639979068731</v>
       </c>
       <c r="E34" t="n">
-        <v>98.01270588235295</v>
+        <v>42.16443312395031</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>20.99374999999999</v>
+        <v>11.891966666737</v>
       </c>
     </row>
     <row r="35">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>54.43300490196079</v>
+        <v>19.87508333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>41.14911764705882</v>
+        <v>15.5340294117647</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>13.28388725490197</v>
+        <v>4.341053921568628</v>
       </c>
     </row>
     <row r="36">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>144.1674509803921</v>
+        <v>40.46233333333333</v>
       </c>
       <c r="E36" t="n">
-        <v>116.3411470588235</v>
+        <v>34.44113725490197</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>27.82630392156862</v>
+        <v>6.021196078431366</v>
       </c>
     </row>
     <row r="37">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>13839.91239705882</v>
+        <v>2795.798661764706</v>
       </c>
       <c r="E37" t="n">
-        <v>9330.136676470589</v>
+        <v>1960.910480392157</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4509.775720588234</v>
+        <v>834.8881813725488</v>
       </c>
     </row>
     <row r="38">
@@ -1603,18 +1603,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>9.97058823529412</v>
+        <v>2.023529411764706</v>
       </c>
       <c r="E38" t="n">
-        <v>11.24117647058824</v>
+        <v>2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-1.270588235294117</v>
+        <v>0.0235294117647058</v>
       </c>
     </row>
     <row r="39">
@@ -1634,10 +1634,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32.19901960784314</v>
+        <v>22.38137254901961</v>
       </c>
       <c r="E39" t="n">
-        <v>25.64117647058823</v>
+        <v>19.33529411764706</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.557843137254906</v>
+        <v>3.046078431372546</v>
       </c>
     </row>
     <row r="40">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>22.22843137254902</v>
+        <v>20.3578431372549</v>
       </c>
       <c r="E40" t="n">
-        <v>14.4</v>
+        <v>17.33529411764706</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>7.828431372549018</v>
+        <v>3.02254901960784</v>
       </c>
     </row>
     <row r="41">
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>235.1897058823529</v>
+        <v>108.2102941176471</v>
       </c>
       <c r="E41" t="n">
-        <v>101.2029411764706</v>
+        <v>57.10294117647058</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>133.9867647058823</v>
+        <v>51.10735294117649</v>
       </c>
     </row>
     <row r="42">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>234.2688529411764</v>
+        <v>104.6753044371417</v>
       </c>
       <c r="E42" t="n">
-        <v>101.4437941176471</v>
+        <v>54.74151535385528</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>132.8250588235294</v>
+        <v>49.93378908328645</v>
       </c>
     </row>
     <row r="43">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>210.7077401960784</v>
+        <v>96.98626474876934</v>
       </c>
       <c r="E43" t="n">
-        <v>91.63208823529411</v>
+        <v>52.27435853576584</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>119.0756519607843</v>
+        <v>44.7119062130035</v>
       </c>
     </row>
     <row r="44">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>90.18271568627452</v>
+        <v>35.72200490196079</v>
       </c>
       <c r="E44" t="n">
-        <v>36.49008823529412</v>
+        <v>17.43323529411765</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>53.6926274509804</v>
+        <v>18.28876960784314</v>
       </c>
     </row>
     <row r="45">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>116.0055049019608</v>
+        <v>37.10477450980392</v>
       </c>
       <c r="E45" t="n">
-        <v>113.0181764705882</v>
+        <v>35.44764705882352</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.987328431372546</v>
+        <v>1.657127450980404</v>
       </c>
     </row>
     <row r="46">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>21839.44973039215</v>
+        <v>4746.980931372549</v>
       </c>
       <c r="E46" t="n">
-        <v>8781.823970588237</v>
+        <v>2517.389264705882</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>13057.62575980392</v>
+        <v>2229.591666666667</v>
       </c>
     </row>
     <row r="47">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10.41078431372549</v>
+        <v>2.058823529411764</v>
       </c>
       <c r="E47" t="n">
-        <v>9.94705882352941</v>
+        <v>2.029411764705882</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4637254901960812</v>
+        <v>0.02941176470588225</v>
       </c>
     </row>
     <row r="48">
@@ -1913,18 +1913,18 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>30.22647058823529</v>
+        <v>24.00980392156863</v>
       </c>
       <c r="E48" t="n">
-        <v>28.82352941176471</v>
+        <v>26.7764705882353</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.402941176470581</v>
+        <v>-2.766666666666673</v>
       </c>
     </row>
     <row r="49">
@@ -1944,18 +1944,18 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>19.8156862745098</v>
+        <v>21.95098039215686</v>
       </c>
       <c r="E49" t="n">
-        <v>18.8764705882353</v>
+        <v>24.74705882352941</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9392156862745011</v>
+        <v>-2.796078431372553</v>
       </c>
     </row>
     <row r="50">
@@ -1975,18 +1975,18 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>163.343137254902</v>
+        <v>72.2671568627451</v>
       </c>
       <c r="E50" t="n">
-        <v>150.8088235294118</v>
+        <v>79.33529411764708</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>12.53431372549022</v>
+        <v>-7.068137254901984</v>
       </c>
     </row>
     <row r="51">
@@ -2006,18 +2006,18 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>163.4015049019607</v>
+        <v>69.57743943452282</v>
       </c>
       <c r="E51" t="n">
-        <v>151.0018235294118</v>
+        <v>77.33518646614834</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>12.399681372549</v>
+        <v>-7.757747031625527</v>
       </c>
     </row>
     <row r="52">
@@ -2037,18 +2037,18 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>146.7745049019608</v>
+        <v>63.77834680299362</v>
       </c>
       <c r="E52" t="n">
-        <v>139.9214705882353</v>
+        <v>72.43374608072422</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.853034313725516</v>
+        <v>-8.655399277730595</v>
       </c>
     </row>
     <row r="53">
@@ -2068,18 +2068,18 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>65.11310294117646</v>
+        <v>23.98320098039216</v>
       </c>
       <c r="E53" t="n">
-        <v>46.34276470588236</v>
+        <v>24.87838235294117</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>18.7703382352941</v>
+        <v>-0.8951813725490112</v>
       </c>
     </row>
     <row r="54">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>131.3164558823529</v>
+        <v>33982.39590686274</v>
       </c>
       <c r="E54" t="n">
-        <v>60.96285294117647</v>
+        <v>-22351.08305882353</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>70.35360294117646</v>
+        <v>56333.47896568627</v>
       </c>
     </row>
     <row r="55">
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>16295.13291666667</v>
+        <v>3121.130568627451</v>
       </c>
       <c r="E55" t="n">
-        <v>9353.635764705881</v>
+        <v>2674.751970588235</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>6941.497151960788</v>
+        <v>446.3785980392163</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
+++ b/[5] Tester Results/TEST_REC_ORDER_DIRECTION.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,18 +487,18 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.011764705882353</v>
+        <v>29.66470588235294</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>29.91960784313725</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.0117647058823529</v>
+        <v>-0.2549019607843128</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>29.66470588235294</v>
+        <v>26.19264705882353</v>
       </c>
       <c r="E3" t="n">
-        <v>29.91960784313725</v>
+        <v>28</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.2549019607843128</v>
+        <v>-1.807352941176472</v>
       </c>
     </row>
     <row r="4">
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27.65294117647059</v>
+        <v>25.88724953948705</v>
       </c>
       <c r="E4" t="n">
-        <v>27.91960784313725</v>
+        <v>27.34578487000606</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-0.2666666666666622</v>
+        <v>-1.458535330519016</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>26.19264705882353</v>
+        <v>24.61408444579874</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>25.95823416000801</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-1.807352941176472</v>
+        <v>-1.344149714209269</v>
       </c>
     </row>
     <row r="6">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>25.88724953948705</v>
+        <v>8.095382352941174</v>
       </c>
       <c r="E6" t="n">
-        <v>27.34578487000606</v>
+        <v>9.092450980392158</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-1.458535330519016</v>
+        <v>-0.9970686274509841</v>
       </c>
     </row>
     <row r="7">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24.61408444579874</v>
+        <v>22.90964705882353</v>
       </c>
       <c r="E7" t="n">
-        <v>25.95823416000801</v>
+        <v>26.84164705882353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-1.344149714209269</v>
+        <v>-3.931999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8.095382352941174</v>
+        <v>910.5972549019606</v>
       </c>
       <c r="E8" t="n">
-        <v>9.092450980392158</v>
+        <v>1038.253882352941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-0.9970686274509841</v>
+        <v>-127.6566274509806</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +695,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -704,18 +704,18 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>22.90964705882353</v>
+        <v>27.37058823529412</v>
       </c>
       <c r="E9" t="n">
-        <v>26.84164705882353</v>
+        <v>27.21176470588236</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-3.931999999999999</v>
+        <v>0.1588235294117624</v>
       </c>
     </row>
     <row r="10">
@@ -726,7 +726,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>910.5972549019606</v>
+        <v>42.58676470588235</v>
       </c>
       <c r="E10" t="n">
-        <v>1038.253882352941</v>
+        <v>49.42058823529411</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-127.6566274509806</v>
+        <v>-6.833823529411767</v>
       </c>
     </row>
     <row r="11">
@@ -766,18 +766,18 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2.035294117647059</v>
+        <v>41.65991455567057</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>48.83243734314609</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.0352941176470587</v>
+        <v>-7.172522787475515</v>
       </c>
     </row>
     <row r="12">
@@ -797,18 +797,18 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27.37058823529412</v>
+        <v>39.31767164903403</v>
       </c>
       <c r="E12" t="n">
-        <v>27.21176470588236</v>
+        <v>47.16145683233783</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.1588235294117624</v>
+        <v>-7.843785183303794</v>
       </c>
     </row>
     <row r="13">
@@ -828,18 +828,18 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25.33529411764706</v>
+        <v>14.18010294117647</v>
       </c>
       <c r="E13" t="n">
-        <v>25.21176470588236</v>
+        <v>15.84479411764706</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.1235294117647072</v>
+        <v>-1.664691176470585</v>
       </c>
     </row>
     <row r="14">
@@ -859,18 +859,18 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42.58676470588235</v>
+        <v>28.49880882352941</v>
       </c>
       <c r="E14" t="n">
-        <v>49.42058823529411</v>
+        <v>28.33964705882353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-6.833823529411767</v>
+        <v>0.1591617647058818</v>
       </c>
     </row>
     <row r="15">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41.65991455567057</v>
+        <v>1812.578808823529</v>
       </c>
       <c r="E15" t="n">
-        <v>48.83243734314609</v>
+        <v>1916.360647058823</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-7.172522787475515</v>
+        <v>-103.7818382352939</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -921,18 +921,18 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>39.31767164903403</v>
+        <v>30.71176470588236</v>
       </c>
       <c r="E16" t="n">
-        <v>47.16145683233783</v>
+        <v>29.84705882352941</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-7.843785183303794</v>
+        <v>0.8647058823529434</v>
       </c>
     </row>
     <row r="17">
@@ -943,7 +943,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>14.18010294117647</v>
+        <v>38.65294117647059</v>
       </c>
       <c r="E17" t="n">
-        <v>15.84479411764706</v>
+        <v>39.83235294117647</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-1.664691176470585</v>
+        <v>-1.179411764705875</v>
       </c>
     </row>
     <row r="18">
@@ -974,7 +974,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -983,18 +983,18 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28.49880882352941</v>
+        <v>38.02296306641332</v>
       </c>
       <c r="E18" t="n">
-        <v>28.33964705882353</v>
+        <v>39.18278956032527</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.1591617647058818</v>
+        <v>-1.15982649391195</v>
       </c>
     </row>
     <row r="19">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1812.578808823529</v>
+        <v>36.79431822758757</v>
       </c>
       <c r="E19" t="n">
-        <v>1916.360647058823</v>
+        <v>37.33403133022745</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-103.7818382352939</v>
+        <v>-0.5397131026398725</v>
       </c>
     </row>
     <row r="20">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>12.24626470588235</v>
       </c>
       <c r="E20" t="n">
-        <v>2.117647058823529</v>
+        <v>13.12876470588235</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-0.1176470588235294</v>
+        <v>-0.8824999999999985</v>
       </c>
     </row>
     <row r="21">
@@ -1076,18 +1076,18 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30.71176470588236</v>
+        <v>23.20177450980392</v>
       </c>
       <c r="E21" t="n">
-        <v>29.84705882352941</v>
+        <v>27.39797058823529</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.8647058823529434</v>
+        <v>-4.19619607843137</v>
       </c>
     </row>
     <row r="22">
@@ -1107,29 +1107,29 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28.71176470588236</v>
+        <v>1261.214568627451</v>
       </c>
       <c r="E22" t="n">
-        <v>27.72941176470588</v>
+        <v>1442.083617647059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.9823529411764724</v>
+        <v>-180.8690490196082</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38.65294117647059</v>
+        <v>24.38333333333333</v>
       </c>
       <c r="E23" t="n">
-        <v>39.83235294117647</v>
+        <v>24.63333333333333</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1149,18 +1149,18 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-1.179411764705875</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1169,29 +1169,29 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38.02296306641332</v>
+        <v>60.01029411764706</v>
       </c>
       <c r="E24" t="n">
-        <v>39.18278956032527</v>
+        <v>46.44607843137254</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-1.15982649391195</v>
+        <v>13.56421568627452</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1200,29 +1200,29 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36.79431822758757</v>
+        <v>57.8934385788173</v>
       </c>
       <c r="E25" t="n">
-        <v>37.33403133022745</v>
+        <v>45.16079723181487</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-0.5397131026398725</v>
+        <v>12.73264134700243</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1231,29 +1231,29 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>12.24626470588235</v>
+        <v>54.05639979068731</v>
       </c>
       <c r="E26" t="n">
-        <v>13.12876470588235</v>
+        <v>42.16443312395031</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-0.8824999999999985</v>
+        <v>11.891966666737</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1262,29 +1262,29 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23.20177450980392</v>
+        <v>19.87508333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>27.39797058823529</v>
+        <v>15.5340294117647</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-4.19619607843137</v>
+        <v>4.341053921568628</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>April16</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1293,18 +1293,18 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1261.214568627451</v>
+        <v>40.46233333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>1442.083617647059</v>
+        <v>34.44113725490197</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-180.8690490196082</v>
+        <v>6.021196078431366</v>
       </c>
     </row>
     <row r="29">
@@ -1324,10 +1324,10 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.140196078431372</v>
+        <v>2795.798661764706</v>
       </c>
       <c r="E29" t="n">
-        <v>2.023529411764706</v>
+        <v>1960.910480392157</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.1166666666666667</v>
+        <v>834.8881813725488</v>
       </c>
     </row>
     <row r="30">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1355,18 +1355,18 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>24.38333333333333</v>
+        <v>22.38137254901961</v>
       </c>
       <c r="E30" t="n">
-        <v>24.63333333333333</v>
+        <v>19.33529411764706</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-0.25</v>
+        <v>3.046078431372546</v>
       </c>
     </row>
     <row r="31">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1386,18 +1386,18 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22.24313725490196</v>
+        <v>108.2102941176471</v>
       </c>
       <c r="E31" t="n">
-        <v>22.60980392156863</v>
+        <v>57.10294117647058</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>late &gt; early</t>
+          <t>early &gt; late</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-0.3666666666666636</v>
+        <v>51.10735294117649</v>
       </c>
     </row>
     <row r="32">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>60.01029411764706</v>
+        <v>104.6753044371417</v>
       </c>
       <c r="E32" t="n">
-        <v>46.44607843137254</v>
+        <v>54.74151535385528</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>13.56421568627452</v>
+        <v>49.93378908328645</v>
       </c>
     </row>
     <row r="33">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>57.8934385788173</v>
+        <v>96.98626474876934</v>
       </c>
       <c r="E33" t="n">
-        <v>45.16079723181487</v>
+        <v>52.27435853576584</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>12.73264134700243</v>
+        <v>44.7119062130035</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>54.05639979068731</v>
+        <v>35.72200490196079</v>
       </c>
       <c r="E34" t="n">
-        <v>42.16443312395031</v>
+        <v>17.43323529411765</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>11.891966666737</v>
+        <v>18.28876960784314</v>
       </c>
     </row>
     <row r="35">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>19.87508333333333</v>
+        <v>37.10477450980392</v>
       </c>
       <c r="E35" t="n">
-        <v>15.5340294117647</v>
+        <v>35.44764705882352</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.341053921568628</v>
+        <v>1.657127450980404</v>
       </c>
     </row>
     <row r="36">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>40.46233333333333</v>
+        <v>4746.980931372549</v>
       </c>
       <c r="E36" t="n">
-        <v>34.44113725490197</v>
+        <v>2517.389264705882</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>6.021196078431366</v>
+        <v>2229.591666666667</v>
       </c>
     </row>
     <row r="37">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>April16</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1572,18 +1572,18 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2795.798661764706</v>
+        <v>24.00980392156863</v>
       </c>
       <c r="E37" t="n">
-        <v>1960.910480392157</v>
+        <v>26.7764705882353</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>834.8881813725488</v>
+        <v>-2.766666666666673</v>
       </c>
     </row>
     <row r="38">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1603,18 +1603,18 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2.023529411764706</v>
+        <v>72.2671568627451</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>79.33529411764708</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.0235294117647058</v>
+        <v>-7.068137254901984</v>
       </c>
     </row>
     <row r="39">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1634,18 +1634,18 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>22.38137254901961</v>
+        <v>69.57743943452282</v>
       </c>
       <c r="E39" t="n">
-        <v>19.33529411764706</v>
+        <v>77.33518646614834</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.046078431372546</v>
+        <v>-7.757747031625527</v>
       </c>
     </row>
     <row r="40">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1665,18 +1665,18 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>20.3578431372549</v>
+        <v>63.77834680299362</v>
       </c>
       <c r="E40" t="n">
-        <v>17.33529411764706</v>
+        <v>72.43374608072422</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.02254901960784</v>
+        <v>-8.655399277730595</v>
       </c>
     </row>
     <row r="41">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1696,18 +1696,18 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>108.2102941176471</v>
+        <v>23.98320098039216</v>
       </c>
       <c r="E41" t="n">
-        <v>57.10294117647058</v>
+        <v>24.87838235294117</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>early &gt; late</t>
+          <t>late &gt; early</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>51.10735294117649</v>
+        <v>-0.8951813725490112</v>
       </c>
     </row>
     <row r="42">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1727,10 +1727,10 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>104.6753044371417</v>
+        <v>33982.39590686274</v>
       </c>
       <c r="E42" t="n">
-        <v>54.74151535385528</v>
+        <v>-22351.08305882353</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>49.93378908328645</v>
+        <v>56333.47896568627</v>
       </c>
     </row>
     <row r="43">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>96.98626474876934</v>
+        <v>3121.130568627451</v>
       </c>
       <c r="E43" t="n">
-        <v>52.27435853576584</v>
+        <v>2674.751970588235</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1769,378 +1769,6 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>44.7119062130035</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>35.72200490196079</v>
-      </c>
-      <c r="E44" t="n">
-        <v>17.43323529411765</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>18.28876960784314</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>37.10477450980392</v>
-      </c>
-      <c r="E45" t="n">
-        <v>35.44764705882352</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1.657127450980404</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>4746.980931372549</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2517.389264705882</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>2229.591666666667</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>2.058823529411764</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.029411764705882</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>0.02941176470588225</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>24.00980392156863</v>
-      </c>
-      <c r="E48" t="n">
-        <v>26.7764705882353</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>-2.766666666666673</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>21.95098039215686</v>
-      </c>
-      <c r="E49" t="n">
-        <v>24.74705882352941</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>-2.796078431372553</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>72.2671568627451</v>
-      </c>
-      <c r="E50" t="n">
-        <v>79.33529411764708</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>-7.068137254901984</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>69.57743943452282</v>
-      </c>
-      <c r="E51" t="n">
-        <v>77.33518646614834</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>-7.757747031625527</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>63.77834680299362</v>
-      </c>
-      <c r="E52" t="n">
-        <v>72.43374608072422</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>-8.655399277730595</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>23.98320098039216</v>
-      </c>
-      <c r="E53" t="n">
-        <v>24.87838235294117</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>late &gt; early</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>-0.8951813725490112</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>33982.39590686274</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-22351.08305882353</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>56333.47896568627</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>AUC</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>3121.130568627451</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2674.751970588235</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>early &gt; late</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
         <v>446.3785980392163</v>
       </c>
     </row>
